--- a/The Data Science Course 2021 - All Resources/Part_3_Statistics/S17_L99/3.4.Standard-normal-distribution-exercise.xlsx
+++ b/The Data Science Course 2021 - All Resources/Part_3_Statistics/S17_L99/3.4.Standard-normal-distribution-exercise.xlsx
@@ -1,32 +1,47 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Iliya Valchanov\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\giovanni.cintra\Documents\repository\The Data Science Course 2021 - All Resources\Part_3_Statistics\S17_L99\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B2A32AEF-2398-4984-A90F-3CFB12AF6206}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA084998-7865-44B5-BF0A-F303D5E375C6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9060" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Standard normal" sheetId="3" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="171027"/>
+  <definedNames>
+    <definedName name="_xlchart.v1.0" hidden="1">'Standard normal'!$O$11:$O$90</definedName>
+    <definedName name="_xlchart.v1.1" hidden="1">'Standard normal'!$O$11:$O$90</definedName>
+  </definedNames>
+  <calcPr calcId="191029"/>
   <fileRecoveryPr autoRecover="0"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="15">
   <si>
     <t>Standard normal distribution</t>
   </si>
@@ -56,6 +71,21 @@
   </si>
   <si>
     <t>Original dataset</t>
+  </si>
+  <si>
+    <t>Mean</t>
+  </si>
+  <si>
+    <t>Std Deviation</t>
+  </si>
+  <si>
+    <t>Std</t>
+  </si>
+  <si>
+    <t>mean</t>
+  </si>
+  <si>
+    <t>std</t>
   </si>
 </sst>
 </file>
@@ -135,23 +165,17 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="2" fontId="1" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
@@ -169,6 +193,673 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chartEx1.xml><?xml version="1.0" encoding="utf-8"?>
+<cx:chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex">
+  <cx:chartData>
+    <cx:data id="0">
+      <cx:numDim type="val">
+        <cx:f>_xlchart.v1.1</cx:f>
+      </cx:numDim>
+    </cx:data>
+  </cx:chartData>
+  <cx:chart>
+    <cx:title pos="t" align="ctr" overlay="0"/>
+    <cx:plotArea>
+      <cx:plotAreaRegion>
+        <cx:series layoutId="clusteredColumn" uniqueId="{4A77DB8A-35A3-4146-8DB0-633F68D40704}">
+          <cx:dataId val="0"/>
+          <cx:layoutPr>
+            <cx:binning intervalClosed="r">
+              <cx:binCount val="30"/>
+            </cx:binning>
+          </cx:layoutPr>
+        </cx:series>
+      </cx:plotAreaRegion>
+      <cx:axis id="0">
+        <cx:catScaling gapWidth="0"/>
+        <cx:tickLabels/>
+      </cx:axis>
+      <cx:axis id="1">
+        <cx:valScaling/>
+        <cx:majorGridlines/>
+        <cx:tickLabels/>
+      </cx:axis>
+    </cx:plotArea>
+  </cx:chart>
+</cx:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="366">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat">
+        <a:solidFill>
+          <a:srgbClr val="D9D9D9"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>219075</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>4762</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>66675</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>4762</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" Requires="cx1">
+        <xdr:graphicFrame macro="">
+          <xdr:nvGraphicFramePr>
+            <xdr:cNvPr id="2" name="Chart 1">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CADE84CF-AC8C-62CA-6A9D-7419455399CC}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvGraphicFramePr/>
+          </xdr:nvGraphicFramePr>
+          <xdr:xfrm>
+            <a:off x="0" y="0"/>
+            <a:ext cx="0" cy="0"/>
+          </xdr:xfrm>
+          <a:graphic>
+            <a:graphicData uri="http://schemas.microsoft.com/office/drawing/2014/chartex">
+              <cx:chart xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+            </a:graphicData>
+          </a:graphic>
+        </xdr:graphicFrame>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="0" name=""/>
+            <xdr:cNvSpPr>
+              <a:spLocks noTextEdit="1"/>
+            </xdr:cNvSpPr>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="9182100" y="2347912"/>
+              <a:ext cx="4572000" cy="2743200"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:prstClr val="white"/>
+            </a:solidFill>
+            <a:ln w="1">
+              <a:solidFill>
+                <a:prstClr val="green"/>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100"/>
+                <a:t>This chart isn't available in your version of Excel.
+Editing this shape or saving this workbook into a different file format will permanently break the chart.</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -468,798 +1159,1267 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B1:T90"/>
+  <dimension ref="B1:R90"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="Z15" sqref="Z15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="11.4" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="2" style="1" customWidth="1"/>
-    <col min="2" max="2" width="13.6640625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="8.88671875" style="1"/>
-    <col min="4" max="4" width="8.88671875" style="7"/>
-    <col min="5" max="5" width="4.77734375" style="7" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="4.77734375" style="7" customWidth="1"/>
-    <col min="8" max="8" width="8.88671875" style="7"/>
-    <col min="9" max="9" width="12.109375" style="7" bestFit="1" customWidth="1"/>
-    <col min="10" max="14" width="8.88671875" style="7"/>
-    <col min="15" max="15" width="11" style="7" bestFit="1" customWidth="1"/>
-    <col min="16" max="20" width="8.88671875" style="7"/>
-    <col min="21" max="16384" width="8.88671875" style="1"/>
+    <col min="2" max="2" width="13.7109375" style="1" customWidth="1"/>
+    <col min="3" max="4" width="8.85546875" style="1"/>
+    <col min="5" max="5" width="4.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="4.7109375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="6.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="8.85546875" style="1"/>
+    <col min="9" max="9" width="12.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="14" width="8.85546875" style="1"/>
+    <col min="15" max="15" width="11" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16384" width="8.85546875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:20" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1"/>
-      <c r="G1" s="1"/>
-      <c r="H1" s="1"/>
-      <c r="I1" s="1"/>
-      <c r="J1" s="1"/>
-      <c r="K1" s="1"/>
-      <c r="L1" s="1"/>
-      <c r="M1" s="1"/>
-      <c r="N1" s="1"/>
-      <c r="O1" s="1"/>
-      <c r="P1" s="1"/>
-      <c r="Q1" s="1"/>
-      <c r="R1" s="1"/>
-      <c r="S1" s="1"/>
-      <c r="T1" s="1"/>
-    </row>
-    <row r="2" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="D2" s="1"/>
-      <c r="E2" s="1"/>
-      <c r="F2" s="1"/>
-      <c r="G2" s="1"/>
-      <c r="H2" s="1"/>
-      <c r="I2" s="1"/>
-      <c r="J2" s="1"/>
-      <c r="K2" s="1"/>
-      <c r="L2" s="1"/>
-      <c r="M2" s="1"/>
-      <c r="N2" s="1"/>
-      <c r="O2" s="1"/>
-      <c r="P2" s="1"/>
-      <c r="Q2" s="1"/>
-      <c r="R2" s="1"/>
-      <c r="S2" s="1"/>
-      <c r="T2" s="1"/>
-    </row>
-    <row r="3" spans="2:20" ht="12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="3" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B3" s="5" t="s">
         <v>1</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D3" s="1"/>
-      <c r="E3" s="1"/>
-      <c r="F3" s="1"/>
-      <c r="G3" s="1"/>
-      <c r="H3" s="1"/>
-      <c r="I3" s="1"/>
-      <c r="J3" s="1"/>
-      <c r="K3" s="1"/>
-      <c r="L3" s="1"/>
-      <c r="M3" s="1"/>
-      <c r="N3" s="1"/>
-      <c r="O3" s="1"/>
-      <c r="P3" s="1"/>
-      <c r="Q3" s="1"/>
-      <c r="R3" s="1"/>
-      <c r="S3" s="1"/>
-      <c r="T3" s="1"/>
-    </row>
-    <row r="4" spans="2:20" ht="12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="4" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B4" s="5" t="s">
         <v>2</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D4" s="1"/>
-      <c r="E4" s="1"/>
-      <c r="F4" s="1"/>
-      <c r="G4" s="1"/>
-      <c r="H4" s="1"/>
-      <c r="I4" s="1"/>
-      <c r="J4" s="1"/>
-      <c r="K4" s="1"/>
-      <c r="L4" s="1"/>
-      <c r="M4" s="1"/>
-      <c r="N4" s="1"/>
-      <c r="O4" s="1"/>
-      <c r="P4" s="1"/>
-      <c r="Q4" s="1"/>
-      <c r="R4" s="1"/>
-      <c r="S4" s="1"/>
-      <c r="T4" s="1"/>
-    </row>
-    <row r="5" spans="2:20" ht="12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="5" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B5" s="5" t="s">
         <v>3</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D5" s="1"/>
-      <c r="E5" s="1"/>
-      <c r="F5" s="1"/>
-      <c r="G5" s="1"/>
-      <c r="H5" s="1"/>
-      <c r="I5" s="1"/>
-      <c r="J5" s="1"/>
-      <c r="K5" s="1"/>
-      <c r="L5" s="1"/>
-      <c r="M5" s="1"/>
-      <c r="N5" s="1"/>
-      <c r="O5" s="1"/>
-      <c r="P5" s="1"/>
-      <c r="Q5" s="1"/>
-      <c r="R5" s="1"/>
-      <c r="S5" s="1"/>
-      <c r="T5" s="1"/>
-    </row>
-    <row r="6" spans="2:20" ht="12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="6" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B6" s="5" t="s">
         <v>6</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D6" s="1"/>
-      <c r="E6" s="1"/>
-      <c r="F6" s="1"/>
-      <c r="G6" s="1"/>
-      <c r="H6" s="1"/>
-      <c r="I6" s="1"/>
-      <c r="J6" s="1"/>
-      <c r="K6" s="1"/>
-      <c r="L6" s="1"/>
-      <c r="M6" s="1"/>
-      <c r="N6" s="1"/>
-      <c r="O6" s="1"/>
-      <c r="P6" s="1"/>
-      <c r="Q6" s="1"/>
-      <c r="R6" s="1"/>
-      <c r="S6" s="1"/>
-      <c r="T6" s="1"/>
-    </row>
-    <row r="7" spans="2:20" ht="12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="7" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B7" s="5"/>
-      <c r="D7" s="1"/>
-      <c r="E7" s="1"/>
-      <c r="F7" s="1"/>
-      <c r="G7" s="1"/>
-      <c r="H7" s="1"/>
-      <c r="I7" s="1"/>
-      <c r="J7" s="1"/>
-      <c r="K7" s="1"/>
-      <c r="L7" s="1"/>
-      <c r="M7" s="1"/>
-      <c r="N7" s="1"/>
-      <c r="O7" s="1"/>
-      <c r="P7" s="1"/>
-      <c r="Q7" s="1"/>
-      <c r="R7" s="1"/>
-      <c r="S7" s="1"/>
-      <c r="T7" s="1"/>
-    </row>
-    <row r="8" spans="2:20" ht="12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="8" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B8" s="5"/>
-      <c r="D8" s="1"/>
-      <c r="E8" s="1"/>
-      <c r="F8" s="1"/>
-      <c r="G8" s="1"/>
-      <c r="H8" s="1"/>
-      <c r="I8" s="1"/>
-      <c r="J8" s="1"/>
-      <c r="K8" s="1"/>
-      <c r="L8" s="1"/>
-      <c r="M8" s="1"/>
-      <c r="N8" s="1"/>
-      <c r="O8" s="1"/>
-      <c r="P8" s="1"/>
-      <c r="Q8" s="1"/>
-      <c r="R8" s="1"/>
-      <c r="S8" s="1"/>
-      <c r="T8" s="1"/>
-    </row>
-    <row r="10" spans="2:20" ht="12.6" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="10" spans="2:18" ht="12.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B10" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="I10" s="4"/>
-      <c r="N10" s="8"/>
-      <c r="O10" s="4"/>
-    </row>
-    <row r="11" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B11" s="10">
+      <c r="F10" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="I10" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="J10" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="N10" s="5"/>
+      <c r="O10" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="B11" s="6">
         <v>567.45000000000005</v>
       </c>
-      <c r="I11" s="9"/>
-      <c r="O11" s="9"/>
-    </row>
-    <row r="12" spans="2:20" ht="12" x14ac:dyDescent="0.25">
-      <c r="B12" s="10">
+      <c r="F11" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G11" s="6">
+        <f>AVERAGE(B11:B90)</f>
+        <v>743.02708333333317</v>
+      </c>
+      <c r="I11" s="6"/>
+      <c r="J11" s="6">
+        <f>B11-$G$11</f>
+        <v>-175.57708333333312</v>
+      </c>
+      <c r="L11" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M11" s="6">
+        <f>AVERAGE(J11:J90)</f>
+        <v>2.0889956431346944E-13</v>
+      </c>
+      <c r="O11" s="6">
+        <f>J11/$M$12</f>
+        <v>-2.3741692640284278</v>
+      </c>
+      <c r="Q11" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="R11" s="6">
+        <f>AVERAGE(O11:O90)</f>
+        <v>2.6423307986078726E-15</v>
+      </c>
+    </row>
+    <row r="12" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="B12" s="6">
         <v>572.45000000000005</v>
       </c>
-      <c r="C12" s="6"/>
+      <c r="C12" s="4"/>
       <c r="D12" s="4"/>
-      <c r="I12" s="9"/>
+      <c r="F12" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G12" s="1">
+        <f>_xlfn.STDEV.P(B11:B90)</f>
+        <v>73.489400425002728</v>
+      </c>
+      <c r="I12" s="6"/>
+      <c r="J12" s="6">
+        <f t="shared" ref="J12:J75" si="0">B12-$G$11</f>
+        <v>-170.57708333333312</v>
+      </c>
       <c r="K12" s="4"/>
-      <c r="L12" s="9"/>
-      <c r="M12" s="9"/>
-      <c r="O12" s="9"/>
-      <c r="Q12" s="4"/>
-      <c r="R12" s="9"/>
-    </row>
-    <row r="13" spans="2:20" ht="12" x14ac:dyDescent="0.25">
-      <c r="B13" s="10">
+      <c r="L12" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="M12" s="6">
+        <f>_xlfn.STDEV.S(J11:J90)</f>
+        <v>73.953060547763371</v>
+      </c>
+      <c r="O12" s="6">
+        <f t="shared" ref="O12:O75" si="1">J12/$M$12</f>
+        <v>-2.3065588100057615</v>
+      </c>
+      <c r="Q12" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="R12" s="6">
+        <f>_xlfn.STDEV.S(O11:O90)</f>
+        <v>0.99999999999999967</v>
+      </c>
+    </row>
+    <row r="13" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="B13" s="6">
         <v>572.45000000000005</v>
       </c>
       <c r="D13" s="4"/>
-      <c r="E13" s="9"/>
-      <c r="F13" s="9"/>
-      <c r="G13" s="9"/>
-      <c r="I13" s="9"/>
+      <c r="E13" s="6"/>
+      <c r="F13" s="6"/>
+      <c r="G13" s="6"/>
+      <c r="I13" s="6"/>
+      <c r="J13" s="6">
+        <f t="shared" si="0"/>
+        <v>-170.57708333333312</v>
+      </c>
       <c r="K13" s="4"/>
-      <c r="L13" s="9"/>
-      <c r="M13" s="9"/>
-      <c r="O13" s="9"/>
+      <c r="L13" s="6"/>
+      <c r="M13" s="6"/>
+      <c r="O13" s="6">
+        <f t="shared" si="1"/>
+        <v>-2.3065588100057615</v>
+      </c>
       <c r="Q13" s="4"/>
-      <c r="R13" s="9"/>
-    </row>
-    <row r="14" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B14" s="10">
+      <c r="R13" s="6"/>
+    </row>
+    <row r="14" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="B14" s="6">
         <v>589.11666666666679</v>
       </c>
-      <c r="I14" s="9"/>
-      <c r="O14" s="9"/>
-    </row>
-    <row r="15" spans="2:20" ht="12" x14ac:dyDescent="0.25">
-      <c r="B15" s="10">
+      <c r="I14" s="6"/>
+      <c r="J14" s="6">
+        <f t="shared" si="0"/>
+        <v>-153.91041666666638</v>
+      </c>
+      <c r="O14" s="6">
+        <f t="shared" si="1"/>
+        <v>-2.081190629930207</v>
+      </c>
+    </row>
+    <row r="15" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="B15" s="6">
         <v>613.86666666666679</v>
       </c>
-      <c r="C15" s="6"/>
-      <c r="I15" s="9"/>
-      <c r="J15" s="4"/>
-      <c r="O15" s="9"/>
+      <c r="C15" s="4"/>
+      <c r="I15" s="6"/>
+      <c r="J15" s="6">
+        <f t="shared" si="0"/>
+        <v>-129.16041666666638</v>
+      </c>
+      <c r="O15" s="6">
+        <f t="shared" si="1"/>
+        <v>-1.7465188825180096</v>
+      </c>
       <c r="P15" s="4"/>
     </row>
-    <row r="16" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B16" s="10">
+    <row r="16" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="B16" s="6">
         <v>615.7833333333333</v>
       </c>
-      <c r="I16" s="9"/>
-      <c r="O16" s="9"/>
+      <c r="I16" s="6"/>
+      <c r="J16" s="6">
+        <f t="shared" si="0"/>
+        <v>-127.24374999999986</v>
+      </c>
+      <c r="O16" s="6">
+        <f t="shared" si="1"/>
+        <v>-1.7206015418093228</v>
+      </c>
     </row>
     <row r="17" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B17" s="10">
+      <c r="B17" s="6">
         <v>628.45000000000005</v>
       </c>
-      <c r="I17" s="9"/>
-      <c r="O17" s="9"/>
+      <c r="I17" s="6"/>
+      <c r="J17" s="6">
+        <f t="shared" si="0"/>
+        <v>-114.57708333333312</v>
+      </c>
+      <c r="O17" s="6">
+        <f t="shared" si="1"/>
+        <v>-1.5493217249519009</v>
+      </c>
     </row>
     <row r="18" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B18" s="10">
+      <c r="B18" s="6">
         <v>644.86666666666679</v>
       </c>
-      <c r="I18" s="9"/>
-      <c r="O18" s="9"/>
+      <c r="I18" s="6"/>
+      <c r="J18" s="6">
+        <f t="shared" si="0"/>
+        <v>-98.160416666666379</v>
+      </c>
+      <c r="O18" s="6">
+        <f t="shared" si="1"/>
+        <v>-1.3273340675774794</v>
+      </c>
     </row>
     <row r="19" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B19" s="10">
+      <c r="B19" s="6">
         <v>650.45000000000005</v>
       </c>
-      <c r="I19" s="9"/>
-      <c r="O19" s="9"/>
+      <c r="I19" s="6"/>
+      <c r="J19" s="6">
+        <f t="shared" si="0"/>
+        <v>-92.577083333333121</v>
+      </c>
+      <c r="O19" s="6">
+        <f t="shared" si="1"/>
+        <v>-1.2518357272521701</v>
+      </c>
     </row>
     <row r="20" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B20" s="10">
+      <c r="B20" s="6">
         <v>652.20000000000005</v>
       </c>
-      <c r="I20" s="9"/>
-      <c r="O20" s="9"/>
+      <c r="I20" s="6"/>
+      <c r="J20" s="6">
+        <f t="shared" si="0"/>
+        <v>-90.827083333333121</v>
+      </c>
+      <c r="O20" s="6">
+        <f t="shared" si="1"/>
+        <v>-1.2281720683442368</v>
+      </c>
     </row>
     <row r="21" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B21" s="10">
+      <c r="B21" s="6">
         <v>656.86666666666679</v>
       </c>
-      <c r="I21" s="9"/>
-      <c r="O21" s="9"/>
+      <c r="I21" s="6"/>
+      <c r="J21" s="6">
+        <f t="shared" si="0"/>
+        <v>-86.160416666666379</v>
+      </c>
+      <c r="O21" s="6">
+        <f t="shared" si="1"/>
+        <v>-1.1650689779230807</v>
+      </c>
     </row>
     <row r="22" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B22" s="10">
+      <c r="B22" s="6">
         <v>661.45</v>
       </c>
-      <c r="I22" s="9"/>
-      <c r="O22" s="9"/>
+      <c r="I22" s="6"/>
+      <c r="J22" s="6">
+        <f t="shared" si="0"/>
+        <v>-81.577083333333121</v>
+      </c>
+      <c r="O22" s="6">
+        <f t="shared" si="1"/>
+        <v>-1.1030927284023044</v>
+      </c>
     </row>
     <row r="23" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B23" s="10">
+      <c r="B23" s="6">
         <v>666.45</v>
       </c>
-      <c r="I23" s="9"/>
-      <c r="O23" s="9"/>
+      <c r="I23" s="6"/>
+      <c r="J23" s="6">
+        <f t="shared" si="0"/>
+        <v>-76.577083333333121</v>
+      </c>
+      <c r="O23" s="6">
+        <f t="shared" si="1"/>
+        <v>-1.0354822743796384</v>
+      </c>
     </row>
     <row r="24" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B24" s="10">
+      <c r="B24" s="6">
         <v>667.7</v>
       </c>
-      <c r="I24" s="9"/>
-      <c r="O24" s="9"/>
+      <c r="I24" s="6"/>
+      <c r="J24" s="6">
+        <f t="shared" si="0"/>
+        <v>-75.327083333333121</v>
+      </c>
+      <c r="O24" s="6">
+        <f t="shared" si="1"/>
+        <v>-1.0185796608739719</v>
+      </c>
     </row>
     <row r="25" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B25" s="10">
+      <c r="B25" s="6">
         <v>668.95</v>
       </c>
-      <c r="I25" s="9"/>
-      <c r="O25" s="9"/>
+      <c r="I25" s="6"/>
+      <c r="J25" s="6">
+        <f t="shared" si="0"/>
+        <v>-74.077083333333121</v>
+      </c>
+      <c r="O25" s="6">
+        <f t="shared" si="1"/>
+        <v>-1.0016770473683052</v>
+      </c>
     </row>
     <row r="26" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B26" s="10">
+      <c r="B26" s="6">
         <v>675.2833333333333</v>
       </c>
-      <c r="I26" s="9"/>
-      <c r="O26" s="9"/>
+      <c r="I26" s="6"/>
+      <c r="J26" s="6">
+        <f t="shared" si="0"/>
+        <v>-67.743749999999864</v>
+      </c>
+      <c r="O26" s="6">
+        <f t="shared" si="1"/>
+        <v>-0.91603713893959593</v>
+      </c>
     </row>
     <row r="27" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B27" s="10">
+      <c r="B27" s="6">
         <v>675.7833333333333</v>
       </c>
-      <c r="I27" s="9"/>
-      <c r="O27" s="9"/>
+      <c r="I27" s="6"/>
+      <c r="J27" s="6">
+        <f t="shared" si="0"/>
+        <v>-67.243749999999864</v>
+      </c>
+      <c r="O27" s="6">
+        <f t="shared" si="1"/>
+        <v>-0.9092760935373293</v>
+      </c>
     </row>
     <row r="28" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B28" s="10">
+      <c r="B28" s="6">
         <v>685.5333333333333</v>
       </c>
-      <c r="I28" s="9"/>
-      <c r="O28" s="9"/>
+      <c r="I28" s="6"/>
+      <c r="J28" s="6">
+        <f t="shared" si="0"/>
+        <v>-57.493749999999864</v>
+      </c>
+      <c r="O28" s="6">
+        <f t="shared" si="1"/>
+        <v>-0.77743570819313035</v>
+      </c>
     </row>
     <row r="29" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B29" s="10">
+      <c r="B29" s="6">
         <v>694.2833333333333</v>
       </c>
-      <c r="I29" s="9"/>
-      <c r="O29" s="9"/>
+      <c r="I29" s="6"/>
+      <c r="J29" s="6">
+        <f t="shared" si="0"/>
+        <v>-48.743749999999864</v>
+      </c>
+      <c r="O29" s="6">
+        <f t="shared" si="1"/>
+        <v>-0.65911741365346466</v>
+      </c>
     </row>
     <row r="30" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B30" s="10">
+      <c r="B30" s="6">
         <v>697.61666666666679</v>
       </c>
-      <c r="I30" s="9"/>
-      <c r="O30" s="9"/>
+      <c r="I30" s="6"/>
+      <c r="J30" s="6">
+        <f t="shared" si="0"/>
+        <v>-45.410416666666379</v>
+      </c>
+      <c r="O30" s="6">
+        <f t="shared" si="1"/>
+        <v>-0.61404377763835183</v>
+      </c>
     </row>
     <row r="31" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B31" s="10">
+      <c r="B31" s="6">
         <v>705.7833333333333</v>
       </c>
-      <c r="I31" s="9"/>
-      <c r="O31" s="9"/>
+      <c r="I31" s="6"/>
+      <c r="J31" s="6">
+        <f t="shared" si="0"/>
+        <v>-37.243749999999864</v>
+      </c>
+      <c r="O31" s="6">
+        <f t="shared" si="1"/>
+        <v>-0.5036133694013325</v>
+      </c>
     </row>
     <row r="32" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B32" s="10">
+      <c r="B32" s="6">
         <v>705.86666666666679</v>
       </c>
-      <c r="I32" s="9"/>
-      <c r="O32" s="9"/>
+      <c r="I32" s="6"/>
+      <c r="J32" s="6">
+        <f t="shared" si="0"/>
+        <v>-37.160416666666379</v>
+      </c>
+      <c r="O32" s="6">
+        <f t="shared" si="1"/>
+        <v>-0.50248652850095266</v>
+      </c>
     </row>
     <row r="33" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B33" s="10">
+      <c r="B33" s="6">
         <v>708.11666666666679</v>
       </c>
-      <c r="I33" s="9"/>
-      <c r="O33" s="9"/>
+      <c r="I33" s="6"/>
+      <c r="J33" s="6">
+        <f t="shared" si="0"/>
+        <v>-34.910416666666379</v>
+      </c>
+      <c r="O33" s="6">
+        <f t="shared" si="1"/>
+        <v>-0.47206182419075293</v>
+      </c>
     </row>
     <row r="34" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B34" s="10">
+      <c r="B34" s="6">
         <v>711.0333333333333</v>
       </c>
-      <c r="I34" s="9"/>
-      <c r="O34" s="9"/>
+      <c r="I34" s="6"/>
+      <c r="J34" s="6">
+        <f t="shared" si="0"/>
+        <v>-31.993749999999864</v>
+      </c>
+      <c r="O34" s="6">
+        <f t="shared" si="1"/>
+        <v>-0.43262239267753305</v>
+      </c>
     </row>
     <row r="35" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B35" s="10">
+      <c r="B35" s="6">
         <v>714.0333333333333</v>
       </c>
-      <c r="I35" s="9"/>
-      <c r="O35" s="9"/>
+      <c r="I35" s="6"/>
+      <c r="J35" s="6">
+        <f t="shared" si="0"/>
+        <v>-28.993749999999864</v>
+      </c>
+      <c r="O35" s="6">
+        <f t="shared" si="1"/>
+        <v>-0.39205612026393338</v>
+      </c>
     </row>
     <row r="36" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B36" s="10">
+      <c r="B36" s="6">
         <v>716.0333333333333</v>
       </c>
-      <c r="I36" s="9"/>
-      <c r="O36" s="9"/>
+      <c r="I36" s="6"/>
+      <c r="J36" s="6">
+        <f t="shared" si="0"/>
+        <v>-26.993749999999864</v>
+      </c>
+      <c r="O36" s="6">
+        <f t="shared" si="1"/>
+        <v>-0.36501193865486692</v>
+      </c>
     </row>
     <row r="37" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B37" s="10">
+      <c r="B37" s="6">
         <v>722.2833333333333</v>
       </c>
-      <c r="I37" s="9"/>
-      <c r="O37" s="9"/>
+      <c r="I37" s="6"/>
+      <c r="J37" s="6">
+        <f t="shared" si="0"/>
+        <v>-20.743749999999864</v>
+      </c>
+      <c r="O37" s="6">
+        <f t="shared" si="1"/>
+        <v>-0.28049887112653427</v>
+      </c>
     </row>
     <row r="38" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B38" s="10">
+      <c r="B38" s="6">
         <v>728.11666666666679</v>
       </c>
-      <c r="I38" s="9"/>
-      <c r="O38" s="9"/>
+      <c r="I38" s="6"/>
+      <c r="J38" s="6">
+        <f t="shared" si="0"/>
+        <v>-14.910416666666379</v>
+      </c>
+      <c r="O38" s="6">
+        <f t="shared" si="1"/>
+        <v>-0.2016200081000884</v>
+      </c>
     </row>
     <row r="39" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B39" s="10">
+      <c r="B39" s="6">
         <v>728.7</v>
       </c>
-      <c r="I39" s="9"/>
-      <c r="O39" s="9"/>
+      <c r="I39" s="6"/>
+      <c r="J39" s="6">
+        <f t="shared" si="0"/>
+        <v>-14.327083333333121</v>
+      </c>
+      <c r="O39" s="6">
+        <f t="shared" si="1"/>
+        <v>-0.19373212179744503</v>
+      </c>
     </row>
     <row r="40" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B40" s="10">
+      <c r="B40" s="6">
         <v>729.0333333333333</v>
       </c>
-      <c r="I40" s="9"/>
-      <c r="O40" s="9"/>
+      <c r="I40" s="6"/>
+      <c r="J40" s="6">
+        <f t="shared" si="0"/>
+        <v>-13.993749999999864</v>
+      </c>
+      <c r="O40" s="6">
+        <f t="shared" si="1"/>
+        <v>-0.18922475819593498</v>
+      </c>
     </row>
     <row r="41" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B41" s="10">
+      <c r="B41" s="6">
         <v>730.11666666666679</v>
       </c>
-      <c r="I41" s="9"/>
-      <c r="O41" s="9"/>
+      <c r="I41" s="6"/>
+      <c r="J41" s="6">
+        <f t="shared" si="0"/>
+        <v>-12.910416666666379</v>
+      </c>
+      <c r="O41" s="6">
+        <f t="shared" si="1"/>
+        <v>-0.17457582649102193</v>
+      </c>
     </row>
     <row r="42" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B42" s="10">
+      <c r="B42" s="6">
         <v>731.95</v>
       </c>
-      <c r="I42" s="9"/>
-      <c r="O42" s="9"/>
+      <c r="I42" s="6"/>
+      <c r="J42" s="6">
+        <f t="shared" si="0"/>
+        <v>-11.077083333333121</v>
+      </c>
+      <c r="O42" s="6">
+        <f t="shared" si="1"/>
+        <v>-0.14978532668271205</v>
+      </c>
     </row>
     <row r="43" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B43" s="10">
+      <c r="B43" s="6">
         <v>735.0333333333333</v>
       </c>
-      <c r="I43" s="9"/>
-      <c r="O43" s="9"/>
+      <c r="I43" s="6"/>
+      <c r="J43" s="6">
+        <f t="shared" si="0"/>
+        <v>-7.9937499999998636</v>
+      </c>
+      <c r="O43" s="6">
+        <f t="shared" si="1"/>
+        <v>-0.10809221336873563</v>
+      </c>
     </row>
     <row r="44" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B44" s="10">
+      <c r="B44" s="6">
         <v>736.95</v>
       </c>
-      <c r="I44" s="9"/>
-      <c r="O44" s="9"/>
+      <c r="I44" s="6"/>
+      <c r="J44" s="6">
+        <f t="shared" si="0"/>
+        <v>-6.0770833333331211</v>
+      </c>
+      <c r="O44" s="6">
+        <f t="shared" si="1"/>
+        <v>-8.2174872660045931E-2</v>
+      </c>
     </row>
     <row r="45" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B45" s="10">
+      <c r="B45" s="6">
         <v>737.36666666666679</v>
       </c>
-      <c r="I45" s="9"/>
-      <c r="O45" s="9"/>
+      <c r="I45" s="6"/>
+      <c r="J45" s="6">
+        <f t="shared" si="0"/>
+        <v>-5.6604166666663787</v>
+      </c>
+      <c r="O45" s="6">
+        <f t="shared" si="1"/>
+        <v>-7.654066815815605E-2</v>
+      </c>
     </row>
     <row r="46" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B46" s="10">
+      <c r="B46" s="6">
         <v>738.2833333333333</v>
       </c>
-      <c r="I46" s="9"/>
-      <c r="O46" s="9"/>
+      <c r="I46" s="6"/>
+      <c r="J46" s="6">
+        <f t="shared" si="0"/>
+        <v>-4.7437499999998636</v>
+      </c>
+      <c r="O46" s="6">
+        <f t="shared" si="1"/>
+        <v>-6.4145418254002648E-2</v>
+      </c>
     </row>
     <row r="47" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B47" s="10">
+      <c r="B47" s="6">
         <v>739.7833333333333</v>
       </c>
-      <c r="I47" s="9"/>
-      <c r="O47" s="9"/>
+      <c r="I47" s="6"/>
+      <c r="J47" s="6">
+        <f t="shared" si="0"/>
+        <v>-3.2437499999998636</v>
+      </c>
+      <c r="O47" s="6">
+        <f t="shared" si="1"/>
+        <v>-4.3862282047202807E-2</v>
+      </c>
     </row>
     <row r="48" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B48" s="10">
+      <c r="B48" s="6">
         <v>740.61666666666679</v>
       </c>
-      <c r="I48" s="9"/>
-      <c r="O48" s="9"/>
+      <c r="I48" s="6"/>
+      <c r="J48" s="6">
+        <f t="shared" si="0"/>
+        <v>-2.4104166666663787</v>
+      </c>
+      <c r="O48" s="6">
+        <f t="shared" si="1"/>
+        <v>-3.2593873043423073E-2</v>
+      </c>
     </row>
     <row r="49" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B49" s="10">
+      <c r="B49" s="6">
         <v>743.61666666666679</v>
       </c>
-      <c r="I49" s="9"/>
-      <c r="O49" s="9"/>
+      <c r="I49" s="6"/>
+      <c r="J49" s="6">
+        <f t="shared" si="0"/>
+        <v>0.58958333333362134</v>
+      </c>
+      <c r="O49" s="6">
+        <f t="shared" si="1"/>
+        <v>7.9723993701766097E-3</v>
+      </c>
     </row>
     <row r="50" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B50" s="10">
+      <c r="B50" s="6">
         <v>747.2</v>
       </c>
-      <c r="I50" s="9"/>
-      <c r="O50" s="9"/>
+      <c r="I50" s="6"/>
+      <c r="J50" s="6">
+        <f t="shared" si="0"/>
+        <v>4.1729166666668789</v>
+      </c>
+      <c r="O50" s="6">
+        <f t="shared" si="1"/>
+        <v>5.6426558086419644E-2</v>
+      </c>
     </row>
     <row r="51" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B51" s="10">
+      <c r="B51" s="6">
         <v>748.2</v>
       </c>
-      <c r="I51" s="9"/>
-      <c r="O51" s="9"/>
+      <c r="I51" s="6"/>
+      <c r="J51" s="6">
+        <f t="shared" si="0"/>
+        <v>5.1729166666668789</v>
+      </c>
+      <c r="O51" s="6">
+        <f t="shared" si="1"/>
+        <v>6.9948648890952869E-2</v>
+      </c>
     </row>
     <row r="52" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B52" s="10">
+      <c r="B52" s="6">
         <v>748.2833333333333</v>
       </c>
-      <c r="I52" s="9"/>
-      <c r="O52" s="9"/>
+      <c r="I52" s="6"/>
+      <c r="J52" s="6">
+        <f t="shared" si="0"/>
+        <v>5.2562500000001364</v>
+      </c>
+      <c r="O52" s="6">
+        <f t="shared" si="1"/>
+        <v>7.1075489791329619E-2</v>
+      </c>
     </row>
     <row r="53" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B53" s="10">
+      <c r="B53" s="6">
         <v>748.5333333333333</v>
       </c>
-      <c r="I53" s="9"/>
-      <c r="O53" s="9"/>
+      <c r="I53" s="6"/>
+      <c r="J53" s="6">
+        <f t="shared" si="0"/>
+        <v>5.5062500000001364</v>
+      </c>
+      <c r="O53" s="6">
+        <f t="shared" si="1"/>
+        <v>7.445601249246292E-2</v>
+      </c>
     </row>
     <row r="54" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B54" s="10">
+      <c r="B54" s="6">
         <v>750.0333333333333</v>
       </c>
-      <c r="I54" s="9"/>
-      <c r="O54" s="9"/>
+      <c r="I54" s="6"/>
+      <c r="J54" s="6">
+        <f t="shared" si="0"/>
+        <v>7.0062500000001364</v>
+      </c>
+      <c r="O54" s="6">
+        <f t="shared" si="1"/>
+        <v>9.4739148699262768E-2</v>
+      </c>
     </row>
     <row r="55" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B55" s="10">
+      <c r="B55" s="6">
         <v>752.11666666666679</v>
       </c>
-      <c r="I55" s="9"/>
-      <c r="O55" s="9"/>
+      <c r="I55" s="6"/>
+      <c r="J55" s="6">
+        <f t="shared" si="0"/>
+        <v>9.0895833333336213</v>
+      </c>
+      <c r="O55" s="6">
+        <f t="shared" si="1"/>
+        <v>0.12291017120870903</v>
+      </c>
     </row>
     <row r="56" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B56" s="10">
+      <c r="B56" s="6">
         <v>754.7</v>
       </c>
-      <c r="I56" s="9"/>
-      <c r="O56" s="9"/>
+      <c r="I56" s="6"/>
+      <c r="J56" s="6">
+        <f t="shared" si="0"/>
+        <v>11.672916666666879</v>
+      </c>
+      <c r="O56" s="6">
+        <f t="shared" si="1"/>
+        <v>0.15784223912041884</v>
+      </c>
     </row>
     <row r="57" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B57" s="10">
+      <c r="B57" s="6">
         <v>755.0333333333333</v>
       </c>
-      <c r="I57" s="9"/>
-      <c r="O57" s="9"/>
+      <c r="I57" s="6"/>
+      <c r="J57" s="6">
+        <f t="shared" si="0"/>
+        <v>12.006250000000136</v>
+      </c>
+      <c r="O57" s="6">
+        <f t="shared" si="1"/>
+        <v>0.16234960272192889</v>
+      </c>
     </row>
     <row r="58" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B58" s="10">
+      <c r="B58" s="6">
         <v>758.36666666666667</v>
       </c>
-      <c r="I58" s="9"/>
-      <c r="O58" s="9"/>
+      <c r="I58" s="6"/>
+      <c r="J58" s="6">
+        <f t="shared" si="0"/>
+        <v>15.339583333333508</v>
+      </c>
+      <c r="O58" s="6">
+        <f t="shared" si="1"/>
+        <v>0.20742323873704016</v>
+      </c>
     </row>
     <row r="59" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B59" s="10">
+      <c r="B59" s="6">
         <v>760.53333333333342</v>
       </c>
-      <c r="I59" s="9"/>
-      <c r="O59" s="9"/>
+      <c r="I59" s="6"/>
+      <c r="J59" s="6">
+        <f t="shared" si="0"/>
+        <v>17.50625000000025</v>
+      </c>
+      <c r="O59" s="6">
+        <f t="shared" si="1"/>
+        <v>0.23672110214686318</v>
+      </c>
     </row>
     <row r="60" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B60" s="10">
+      <c r="B60" s="6">
         <v>764.03333333333342</v>
       </c>
-      <c r="I60" s="9"/>
-      <c r="O60" s="9"/>
+      <c r="I60" s="6"/>
+      <c r="J60" s="6">
+        <f t="shared" si="0"/>
+        <v>21.00625000000025</v>
+      </c>
+      <c r="O60" s="6">
+        <f t="shared" si="1"/>
+        <v>0.28404841996272945</v>
+      </c>
     </row>
     <row r="61" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B61" s="10">
+      <c r="B61" s="6">
         <v>769.28333333333342</v>
       </c>
-      <c r="I61" s="9"/>
-      <c r="O61" s="9"/>
+      <c r="I61" s="6"/>
+      <c r="J61" s="6">
+        <f t="shared" si="0"/>
+        <v>26.25625000000025</v>
+      </c>
+      <c r="O61" s="6">
+        <f t="shared" si="1"/>
+        <v>0.3550393966865289</v>
+      </c>
     </row>
     <row r="62" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B62" s="10">
+      <c r="B62" s="6">
         <v>775.45</v>
       </c>
-      <c r="I62" s="9"/>
-      <c r="O62" s="9"/>
+      <c r="I62" s="6"/>
+      <c r="J62" s="6">
+        <f t="shared" si="0"/>
+        <v>32.422916666666879</v>
+      </c>
+      <c r="O62" s="6">
+        <f t="shared" si="1"/>
+        <v>0.43842562331448326</v>
+      </c>
     </row>
     <row r="63" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B63" s="10">
+      <c r="B63" s="6">
         <v>781.2</v>
       </c>
-      <c r="I63" s="9"/>
-      <c r="O63" s="9"/>
+      <c r="I63" s="6"/>
+      <c r="J63" s="6">
+        <f t="shared" si="0"/>
+        <v>38.172916666666879</v>
+      </c>
+      <c r="O63" s="6">
+        <f t="shared" si="1"/>
+        <v>0.51617764544054934</v>
+      </c>
     </row>
     <row r="64" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B64" s="10">
+      <c r="B64" s="6">
         <v>781.7</v>
       </c>
-      <c r="I64" s="9"/>
-      <c r="O64" s="9"/>
+      <c r="I64" s="6"/>
+      <c r="J64" s="6">
+        <f t="shared" si="0"/>
+        <v>38.672916666666879</v>
+      </c>
+      <c r="O64" s="6">
+        <f t="shared" si="1"/>
+        <v>0.52293869084281597</v>
+      </c>
     </row>
     <row r="65" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B65" s="10">
+      <c r="B65" s="6">
         <v>785.61666666666667</v>
       </c>
-      <c r="I65" s="9"/>
-      <c r="O65" s="9"/>
+      <c r="I65" s="6"/>
+      <c r="J65" s="6">
+        <f t="shared" si="0"/>
+        <v>42.589583333333508</v>
+      </c>
+      <c r="O65" s="6">
+        <f t="shared" si="1"/>
+        <v>0.57590021316057061</v>
+      </c>
     </row>
     <row r="66" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B66" s="10">
+      <c r="B66" s="6">
         <v>792.78333333333342</v>
       </c>
-      <c r="I66" s="9"/>
-      <c r="O66" s="9"/>
+      <c r="I66" s="6"/>
+      <c r="J66" s="6">
+        <f t="shared" si="0"/>
+        <v>49.75625000000025</v>
+      </c>
+      <c r="O66" s="6">
+        <f t="shared" si="1"/>
+        <v>0.67280853059305967</v>
+      </c>
     </row>
     <row r="67" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B67" s="10">
+      <c r="B67" s="6">
         <v>793.36666666666667</v>
       </c>
-      <c r="I67" s="9"/>
-      <c r="O67" s="9"/>
+      <c r="I67" s="6"/>
+      <c r="J67" s="6">
+        <f t="shared" si="0"/>
+        <v>50.339583333333508</v>
+      </c>
+      <c r="O67" s="6">
+        <f t="shared" si="1"/>
+        <v>0.68069641689570304</v>
+      </c>
     </row>
     <row r="68" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B68" s="10">
+      <c r="B68" s="6">
         <v>795.28333333333342</v>
       </c>
-      <c r="I68" s="9"/>
-      <c r="O68" s="9"/>
+      <c r="I68" s="6"/>
+      <c r="J68" s="6">
+        <f t="shared" si="0"/>
+        <v>52.25625000000025</v>
+      </c>
+      <c r="O68" s="6">
+        <f t="shared" si="1"/>
+        <v>0.70661375760439282</v>
+      </c>
     </row>
     <row r="69" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B69" s="10">
+      <c r="B69" s="6">
         <v>797.61666666666667</v>
       </c>
-      <c r="I69" s="9"/>
-      <c r="O69" s="9"/>
+      <c r="I69" s="6"/>
+      <c r="J69" s="6">
+        <f t="shared" si="0"/>
+        <v>54.589583333333508</v>
+      </c>
+      <c r="O69" s="6">
+        <f t="shared" si="1"/>
+        <v>0.73816530281496928</v>
+      </c>
     </row>
     <row r="70" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B70" s="10">
+      <c r="B70" s="6">
         <v>798.95</v>
       </c>
-      <c r="I70" s="9"/>
-      <c r="O70" s="9"/>
+      <c r="I70" s="6"/>
+      <c r="J70" s="6">
+        <f t="shared" si="0"/>
+        <v>55.922916666666879</v>
+      </c>
+      <c r="O70" s="6">
+        <f t="shared" si="1"/>
+        <v>0.75619475722101415</v>
+      </c>
     </row>
     <row r="71" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B71" s="10">
+      <c r="B71" s="6">
         <v>799.7</v>
       </c>
-      <c r="I71" s="9"/>
-      <c r="O71" s="9"/>
+      <c r="I71" s="6"/>
+      <c r="J71" s="6">
+        <f t="shared" si="0"/>
+        <v>56.672916666666879</v>
+      </c>
+      <c r="O71" s="6">
+        <f t="shared" si="1"/>
+        <v>0.76633632532441398</v>
+      </c>
     </row>
     <row r="72" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B72" s="10">
+      <c r="B72" s="6">
         <v>799.95</v>
       </c>
-      <c r="I72" s="9"/>
-      <c r="O72" s="9"/>
+      <c r="I72" s="6"/>
+      <c r="J72" s="6">
+        <f t="shared" si="0"/>
+        <v>56.922916666666879</v>
+      </c>
+      <c r="O72" s="6">
+        <f t="shared" si="1"/>
+        <v>0.7697168480255473</v>
+      </c>
     </row>
     <row r="73" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B73" s="10">
+      <c r="B73" s="6">
         <v>810.86666666666667</v>
       </c>
-      <c r="I73" s="9"/>
-      <c r="O73" s="9"/>
+      <c r="I73" s="6"/>
+      <c r="J73" s="6">
+        <f t="shared" si="0"/>
+        <v>67.839583333333508</v>
+      </c>
+      <c r="O73" s="6">
+        <f t="shared" si="1"/>
+        <v>0.91733300597503453</v>
+      </c>
     </row>
     <row r="74" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B74" s="10">
+      <c r="B74" s="6">
         <v>811.53333333333342</v>
       </c>
-      <c r="I74" s="9"/>
-      <c r="O74" s="9"/>
+      <c r="I74" s="6"/>
+      <c r="J74" s="6">
+        <f t="shared" si="0"/>
+        <v>68.50625000000025</v>
+      </c>
+      <c r="O74" s="6">
+        <f t="shared" si="1"/>
+        <v>0.92634773317805774</v>
+      </c>
     </row>
     <row r="75" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B75" s="10">
+      <c r="B75" s="6">
         <v>813.61666666666667</v>
       </c>
-      <c r="I75" s="9"/>
-      <c r="O75" s="9"/>
+      <c r="I75" s="6"/>
+      <c r="J75" s="6">
+        <f t="shared" si="0"/>
+        <v>70.589583333333508</v>
+      </c>
+      <c r="O75" s="6">
+        <f t="shared" si="1"/>
+        <v>0.95451875568750089</v>
+      </c>
     </row>
     <row r="76" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B76" s="10">
+      <c r="B76" s="6">
         <v>814.03333333333342</v>
       </c>
-      <c r="I76" s="9"/>
-      <c r="O76" s="9"/>
+      <c r="I76" s="6"/>
+      <c r="J76" s="6">
+        <f t="shared" ref="J76:J90" si="2">B76-$G$11</f>
+        <v>71.00625000000025</v>
+      </c>
+      <c r="O76" s="6">
+        <f t="shared" ref="O76:O90" si="3">J76/$M$12</f>
+        <v>0.96015296018939078</v>
+      </c>
     </row>
     <row r="77" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B77" s="10">
+      <c r="B77" s="6">
         <v>814.78333333333342</v>
       </c>
-      <c r="I77" s="9"/>
-      <c r="O77" s="9"/>
+      <c r="I77" s="6"/>
+      <c r="J77" s="6">
+        <f t="shared" si="2"/>
+        <v>71.75625000000025</v>
+      </c>
+      <c r="O77" s="6">
+        <f t="shared" si="3"/>
+        <v>0.97029452829279073</v>
+      </c>
     </row>
     <row r="78" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B78" s="10">
+      <c r="B78" s="6">
         <v>817.86666666666667</v>
       </c>
-      <c r="I78" s="9"/>
-      <c r="O78" s="9"/>
+      <c r="I78" s="6"/>
+      <c r="J78" s="6">
+        <f t="shared" si="2"/>
+        <v>74.839583333333508</v>
+      </c>
+      <c r="O78" s="6">
+        <f t="shared" si="3"/>
+        <v>1.011987641606767</v>
+      </c>
     </row>
     <row r="79" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B79" s="10">
+      <c r="B79" s="6">
         <v>818.86666666666667</v>
       </c>
-      <c r="I79" s="9"/>
-      <c r="O79" s="9"/>
+      <c r="I79" s="6"/>
+      <c r="J79" s="6">
+        <f t="shared" si="2"/>
+        <v>75.839583333333508</v>
+      </c>
+      <c r="O79" s="6">
+        <f t="shared" si="3"/>
+        <v>1.0255097324113003</v>
+      </c>
     </row>
     <row r="80" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B80" s="10">
+      <c r="B80" s="6">
         <v>820.7</v>
       </c>
-      <c r="I80" s="9"/>
-      <c r="O80" s="9"/>
+      <c r="I80" s="6"/>
+      <c r="J80" s="6">
+        <f t="shared" si="2"/>
+        <v>77.672916666666879</v>
+      </c>
+      <c r="O80" s="6">
+        <f t="shared" si="3"/>
+        <v>1.0503002322196118</v>
+      </c>
     </row>
     <row r="81" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B81" s="10">
+      <c r="B81" s="6">
         <v>821.11666666666667</v>
       </c>
-      <c r="I81" s="9"/>
-      <c r="O81" s="9"/>
+      <c r="I81" s="6"/>
+      <c r="J81" s="6">
+        <f t="shared" si="2"/>
+        <v>78.089583333333508</v>
+      </c>
+      <c r="O81" s="6">
+        <f t="shared" si="3"/>
+        <v>1.0559344367215</v>
+      </c>
     </row>
     <row r="82" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B82" s="10">
+      <c r="B82" s="6">
         <v>825.61666666666667</v>
       </c>
-      <c r="I82" s="9"/>
-      <c r="O82" s="9"/>
+      <c r="I82" s="6"/>
+      <c r="J82" s="6">
+        <f t="shared" si="2"/>
+        <v>82.589583333333508</v>
+      </c>
+      <c r="O82" s="6">
+        <f t="shared" si="3"/>
+        <v>1.1167838453418997</v>
+      </c>
     </row>
     <row r="83" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B83" s="10">
+      <c r="B83" s="6">
         <v>828.61666666666667</v>
       </c>
-      <c r="I83" s="9"/>
-      <c r="O83" s="9"/>
+      <c r="I83" s="6"/>
+      <c r="J83" s="6">
+        <f t="shared" si="2"/>
+        <v>85.589583333333508</v>
+      </c>
+      <c r="O83" s="6">
+        <f t="shared" si="3"/>
+        <v>1.1573501177554992</v>
+      </c>
     </row>
     <row r="84" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B84" s="10">
+      <c r="B84" s="6">
         <v>841.45</v>
       </c>
-      <c r="I84" s="9"/>
-      <c r="O84" s="9"/>
+      <c r="I84" s="6"/>
+      <c r="J84" s="6">
+        <f t="shared" si="2"/>
+        <v>98.422916666666879</v>
+      </c>
+      <c r="O84" s="6">
+        <f t="shared" si="3"/>
+        <v>1.3308836164136761</v>
+      </c>
     </row>
     <row r="85" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B85" s="10">
+      <c r="B85" s="6">
         <v>842.03333333333342</v>
       </c>
-      <c r="I85" s="9"/>
-      <c r="O85" s="9"/>
+      <c r="I85" s="6"/>
+      <c r="J85" s="6">
+        <f t="shared" si="2"/>
+        <v>99.00625000000025</v>
+      </c>
+      <c r="O85" s="6">
+        <f t="shared" si="3"/>
+        <v>1.3387715027163212</v>
+      </c>
     </row>
     <row r="86" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B86" s="10">
+      <c r="B86" s="6">
         <v>842.86666666666667</v>
       </c>
-      <c r="I86" s="9"/>
-      <c r="O86" s="9"/>
+      <c r="I86" s="6"/>
+      <c r="J86" s="6">
+        <f t="shared" si="2"/>
+        <v>99.839583333333508</v>
+      </c>
+      <c r="O86" s="6">
+        <f t="shared" si="3"/>
+        <v>1.3500399117200979</v>
+      </c>
     </row>
     <row r="87" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B87" s="10">
+      <c r="B87" s="6">
         <v>849.61666666666667</v>
       </c>
-      <c r="I87" s="9"/>
-      <c r="O87" s="9"/>
+      <c r="I87" s="6"/>
+      <c r="J87" s="6">
+        <f t="shared" si="2"/>
+        <v>106.58958333333351</v>
+      </c>
+      <c r="O87" s="6">
+        <f t="shared" si="3"/>
+        <v>1.441314024650697</v>
+      </c>
     </row>
     <row r="88" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B88" s="10">
+      <c r="B88" s="6">
         <v>874.7</v>
       </c>
-      <c r="I88" s="9"/>
-      <c r="O88" s="9"/>
+      <c r="I88" s="6"/>
+      <c r="J88" s="6">
+        <f t="shared" si="2"/>
+        <v>131.67291666666688</v>
+      </c>
+      <c r="O88" s="6">
+        <f t="shared" si="3"/>
+        <v>1.780493135664406</v>
+      </c>
     </row>
     <row r="89" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B89" s="10">
+      <c r="B89" s="6">
         <v>878.78333333333342</v>
       </c>
-      <c r="I89" s="9"/>
-      <c r="O89" s="9"/>
+      <c r="I89" s="6"/>
+      <c r="J89" s="6">
+        <f t="shared" si="2"/>
+        <v>135.75625000000025</v>
+      </c>
+      <c r="O89" s="6">
+        <f t="shared" si="3"/>
+        <v>1.8357083397829173</v>
+      </c>
     </row>
     <row r="90" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B90" s="11">
+      <c r="B90" s="7">
         <v>897.45</v>
       </c>
-      <c r="I90" s="9"/>
-      <c r="O90" s="9"/>
+      <c r="I90" s="6"/>
+      <c r="J90" s="6">
+        <f t="shared" si="2"/>
+        <v>154.42291666666688</v>
+      </c>
+      <c r="O90" s="6">
+        <f t="shared" si="3"/>
+        <v>2.0881207014675369</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>